--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>4.056028510371556</v>
+        <v>3.969863157630335</v>
       </c>
       <c r="R2">
-        <v>36.504256593344</v>
+        <v>35.72876841867301</v>
       </c>
       <c r="S2">
-        <v>0.001056595490574519</v>
+        <v>0.001018755342154578</v>
       </c>
       <c r="T2">
-        <v>0.001056595490574519</v>
+        <v>0.001018755342154578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
-        <v>76.70561250015822</v>
+        <v>193.0310807305418</v>
       </c>
       <c r="R3">
-        <v>690.350512501424</v>
+        <v>1737.279726574876</v>
       </c>
       <c r="S3">
-        <v>0.01998181325949291</v>
+        <v>0.0495360764055895</v>
       </c>
       <c r="T3">
-        <v>0.0199818132594929</v>
+        <v>0.04953607640558952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
-        <v>21.38605225804312</v>
+        <v>53.8183927534819</v>
       </c>
       <c r="R4">
-        <v>192.474470322388</v>
+        <v>484.3655347813371</v>
       </c>
       <c r="S4">
-        <v>0.005571066948681137</v>
+        <v>0.01381099875405034</v>
       </c>
       <c r="T4">
-        <v>0.005571066948681136</v>
+        <v>0.01381099875405035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N5">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q5">
-        <v>34.89683068479645</v>
+        <v>13.57251792819934</v>
       </c>
       <c r="R5">
-        <v>314.071476163168</v>
+        <v>122.152661353794</v>
       </c>
       <c r="S5">
-        <v>0.009090624940780001</v>
+        <v>0.003483010521222961</v>
       </c>
       <c r="T5">
-        <v>0.009090624940779998</v>
+        <v>0.003483010521222961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P6">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q6">
         <v>659.9516658097698</v>
@@ -818,10 +818,10 @@
         <v>5939.564992287927</v>
       </c>
       <c r="S6">
-        <v>0.1719174192954249</v>
+        <v>0.1693583023926795</v>
       </c>
       <c r="T6">
-        <v>0.1719174192954249</v>
+        <v>0.1693583023926795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q7">
         <v>183.9990628164429</v>
@@ -880,10 +880,10 @@
         <v>1655.991565347986</v>
       </c>
       <c r="S7">
-        <v>0.04793175874988656</v>
+        <v>0.04721825935873782</v>
       </c>
       <c r="T7">
-        <v>0.04793175874988655</v>
+        <v>0.04721825935873782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N8">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O8">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P8">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q8">
-        <v>113.4751163234293</v>
+        <v>44.134181256043</v>
       </c>
       <c r="R8">
-        <v>1021.276046910864</v>
+        <v>397.207631304387</v>
       </c>
       <c r="S8">
-        <v>0.02956026958222025</v>
+        <v>0.01132581430163216</v>
       </c>
       <c r="T8">
-        <v>0.02956026958222024</v>
+        <v>0.01132581430163216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>334.775132</v>
       </c>
       <c r="O9">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P9">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q9">
-        <v>2145.98548280865</v>
+        <v>2145.985482808649</v>
       </c>
       <c r="R9">
-        <v>19313.86934527785</v>
+        <v>19313.86934527784</v>
       </c>
       <c r="S9">
-        <v>0.5590292519335102</v>
+        <v>0.550707691421403</v>
       </c>
       <c r="T9">
-        <v>0.5590292519335101</v>
+        <v>0.5507076914214031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N10">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O10">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P10">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q10">
-        <v>598.3155102275338</v>
+        <v>598.3155102275337</v>
       </c>
       <c r="R10">
-        <v>5384.839592047804</v>
+        <v>5384.839592047802</v>
       </c>
       <c r="S10">
-        <v>0.1558611997994298</v>
+        <v>0.15354109150253</v>
       </c>
       <c r="T10">
-        <v>0.1558611997994297</v>
+        <v>0.1535410915025301</v>
       </c>
     </row>
   </sheetData>
